--- a/ml_server/data/EnPhiSim_dataset.xlsx
+++ b/ml_server/data/EnPhiSim_dataset.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveteesac-my.sharepoint.com/personal/d3604526_live_tees_ac_uk/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DIVYATEJ\OneDrive\EnPhiSim\ml_server\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="142" documentId="8_{58E162F3-C0C0-4DDB-9E7D-1300F4126B66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C0E967B3-26A7-4786-AB79-2C5ADCB5B763}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80E14DEC-87C9-42D3-BFB4-A7850CDE31E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{652C4A2D-35AE-4F6D-9BD4-8B9990ADAB74}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{652C4A2D-35AE-4F6D-9BD4-8B9990ADAB74}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
     <t>id</t>
   </si>
@@ -161,6 +161,48 @@
   </si>
   <si>
     <t>f</t>
+  </si>
+  <si>
+    <t>Mass Credential-Phish</t>
+  </si>
+  <si>
+    <t>Scam Invoice/Payment reminder</t>
+  </si>
+  <si>
+    <t>Fake Newsletter Subscription</t>
+  </si>
+  <si>
+    <t>Lottery / Prize Scam</t>
+  </si>
+  <si>
+    <t>Simple attachment Lure</t>
+  </si>
+  <si>
+    <t>Basic Spoofed display -name senders</t>
+  </si>
+  <si>
+    <t>Eagle</t>
+  </si>
+  <si>
+    <t>TypoSquatted Domain Phish</t>
+  </si>
+  <si>
+    <t>URL Shortner redirected Phish</t>
+  </si>
+  <si>
+    <t>Malicious survey /feedback request</t>
+  </si>
+  <si>
+    <t>SMS(Smishing) generic link</t>
+  </si>
+  <si>
+    <t>fake social media notification</t>
+  </si>
+  <si>
+    <t>clone of a public service alert</t>
+  </si>
+  <si>
+    <t>Monkey</t>
   </si>
 </sst>
 </file>
@@ -534,7 +576,7 @@
   <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -588,6 +630,9 @@
       <c r="B2" t="s">
         <v>8</v>
       </c>
+      <c r="C2" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -596,6 +641,9 @@
       <c r="B3" t="s">
         <v>9</v>
       </c>
+      <c r="C3" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -604,6 +652,9 @@
       <c r="B4" t="s">
         <v>10</v>
       </c>
+      <c r="C4" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -612,6 +663,9 @@
       <c r="B5" t="s">
         <v>11</v>
       </c>
+      <c r="C5" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -620,6 +674,9 @@
       <c r="B6" t="s">
         <v>12</v>
       </c>
+      <c r="C6" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -628,6 +685,9 @@
       <c r="B7" t="s">
         <v>13</v>
       </c>
+      <c r="C7" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -636,6 +696,9 @@
       <c r="B8" t="s">
         <v>40</v>
       </c>
+      <c r="C8" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -644,6 +707,9 @@
       <c r="B9" t="s">
         <v>14</v>
       </c>
+      <c r="C9" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -652,6 +718,9 @@
       <c r="B10" t="s">
         <v>15</v>
       </c>
+      <c r="C10" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -660,6 +729,9 @@
       <c r="B11" t="s">
         <v>16</v>
       </c>
+      <c r="C11" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -668,6 +740,9 @@
       <c r="B12" t="s">
         <v>17</v>
       </c>
+      <c r="C12" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -676,6 +751,9 @@
       <c r="B13" t="s">
         <v>18</v>
       </c>
+      <c r="C13" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -684,6 +762,9 @@
       <c r="B14" t="s">
         <v>19</v>
       </c>
+      <c r="C14" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -691,6 +772,9 @@
       </c>
       <c r="B15" t="s">
         <v>41</v>
+      </c>
+      <c r="C15" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">

--- a/ml_server/data/EnPhiSim_dataset.xlsx
+++ b/ml_server/data/EnPhiSim_dataset.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DIVYATEJ\OneDrive\EnPhiSim\ml_server\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80E14DEC-87C9-42D3-BFB4-A7850CDE31E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD593628-3F6E-4FEA-BE8D-8EDAD34DC22D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{652C4A2D-35AE-4F6D-9BD4-8B9990ADAB74}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="135">
   <si>
     <t>id</t>
   </si>
@@ -31,12 +31,6 @@
     <t>screenshot_path</t>
   </si>
   <si>
-    <t>html_path</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
     <t>level_type</t>
   </si>
   <si>
@@ -203,6 +197,234 @@
   </si>
   <si>
     <t>Monkey</t>
+  </si>
+  <si>
+    <t>level_text</t>
+  </si>
+  <si>
+    <t>Spear-Phishing</t>
+  </si>
+  <si>
+    <t>Business Email Compromise</t>
+  </si>
+  <si>
+    <t>Drive / Share Notification</t>
+  </si>
+  <si>
+    <t>invoice impersonation</t>
+  </si>
+  <si>
+    <t>Account Lockout Scare</t>
+  </si>
+  <si>
+    <t>Credential-harvest via landing page</t>
+  </si>
+  <si>
+    <t>Turtle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Whaling </t>
+  </si>
+  <si>
+    <t>spear+ vishing combo</t>
+  </si>
+  <si>
+    <t>Qrcode Quishing</t>
+  </si>
+  <si>
+    <t>Account takeover</t>
+  </si>
+  <si>
+    <t>Malicious HTML or embedded script in attachment</t>
+  </si>
+  <si>
+    <t>Shark</t>
+  </si>
+  <si>
+    <t>Business Process Commpromise</t>
+  </si>
+  <si>
+    <t>Compromised internal Account Spear-phish</t>
+  </si>
+  <si>
+    <t>Deepfake-assisted voice vishing</t>
+  </si>
+  <si>
+    <t>man-in-the-middle credential capture</t>
+  </si>
+  <si>
+    <t>Targeted supply-chain Phishing</t>
+  </si>
+  <si>
+    <t>Elephant</t>
+  </si>
+  <si>
+    <t>AI-generated personalised campaigns</t>
+  </si>
+  <si>
+    <t>Homograph/unicode confusablle domain attacks</t>
+  </si>
+  <si>
+    <t>credential replay+ slow drip exfiltration</t>
+  </si>
+  <si>
+    <t>Multi-vector,adaptive BEC with reconnaissance</t>
+  </si>
+  <si>
+    <t>HoneyBee</t>
+  </si>
+  <si>
+    <t>Advanced Persistent Phishing</t>
+  </si>
+  <si>
+    <t>js_path</t>
+  </si>
+  <si>
+    <t>./levels/l1.js</t>
+  </si>
+  <si>
+    <t>./levels/f.js</t>
+  </si>
+  <si>
+    <t>./levels/bl6.js</t>
+  </si>
+  <si>
+    <t>./levels/l2.js</t>
+  </si>
+  <si>
+    <t>./levels/l3.js</t>
+  </si>
+  <si>
+    <t>./levels/l4.js</t>
+  </si>
+  <si>
+    <t>./levels/l5.js</t>
+  </si>
+  <si>
+    <t>./levels/l6.js</t>
+  </si>
+  <si>
+    <t>./levels/bl1.js</t>
+  </si>
+  <si>
+    <t>./levels/l7.js</t>
+  </si>
+  <si>
+    <t>./levels/l8.js</t>
+  </si>
+  <si>
+    <t>./levels/l9.js</t>
+  </si>
+  <si>
+    <t>./levels/l10.js</t>
+  </si>
+  <si>
+    <t>./levels/l11.js</t>
+  </si>
+  <si>
+    <t>./levels/l12.js</t>
+  </si>
+  <si>
+    <t>./levels/bl2.js</t>
+  </si>
+  <si>
+    <t>./levels/l13.js</t>
+  </si>
+  <si>
+    <t>./levels/l14.js</t>
+  </si>
+  <si>
+    <t>./levels/l15.js</t>
+  </si>
+  <si>
+    <t>./levels/l16.js</t>
+  </si>
+  <si>
+    <t>./levels/l17.js</t>
+  </si>
+  <si>
+    <t>./levels/l18.js</t>
+  </si>
+  <si>
+    <t>./levels/bl3.js</t>
+  </si>
+  <si>
+    <t>./levels/l19.js</t>
+  </si>
+  <si>
+    <t>./levels/l20.js</t>
+  </si>
+  <si>
+    <t>./levels/l21.js</t>
+  </si>
+  <si>
+    <t>./levels/l22.js</t>
+  </si>
+  <si>
+    <t>./levels/l23.js</t>
+  </si>
+  <si>
+    <t>./levels/bl4.js</t>
+  </si>
+  <si>
+    <t>./levels/l24.js</t>
+  </si>
+  <si>
+    <t>./levels/l25.js</t>
+  </si>
+  <si>
+    <t>./levels/l26.js</t>
+  </si>
+  <si>
+    <t>./levels/l27.js</t>
+  </si>
+  <si>
+    <t>./levels/l28.js</t>
+  </si>
+  <si>
+    <t>./levels/bl5.js</t>
+  </si>
+  <si>
+    <t>./levels/l29.js</t>
+  </si>
+  <si>
+    <t>./levels/l30.js</t>
+  </si>
+  <si>
+    <t>./levels/l31.js</t>
+  </si>
+  <si>
+    <t>./levels/l32.js</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>advanced easy</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>pre-hard</t>
+  </si>
+  <si>
+    <t>hard</t>
+  </si>
+  <si>
+    <t>advanced hard</t>
+  </si>
+  <si>
+    <t>final</t>
+  </si>
+  <si>
+    <t>action_1</t>
+  </si>
+  <si>
+    <t>action_2</t>
+  </si>
+  <si>
+    <t>action_3</t>
   </si>
 </sst>
 </file>
@@ -573,22 +795,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0AFD0C1-7CE0-4768-8E89-DB33AF70F10E}">
-  <dimension ref="A1:H40"/>
+  <dimension ref="A1:K40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" customWidth="1"/>
     <col min="2" max="2" width="18.42578125" customWidth="1"/>
-    <col min="3" max="3" width="32.140625" customWidth="1"/>
+    <col min="3" max="3" width="42.28515625" customWidth="1"/>
     <col min="4" max="4" width="35.7109375" customWidth="1"/>
     <col min="5" max="5" width="27.5703125" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" customWidth="1"/>
-    <col min="7" max="7" width="18.28515625" customWidth="1"/>
-    <col min="8" max="8" width="16.5703125" customWidth="1"/>
+    <col min="6" max="6" width="21.42578125" customWidth="1"/>
+    <col min="7" max="7" width="40.28515625" customWidth="1"/>
+    <col min="8" max="8" width="43" customWidth="1"/>
     <col min="9" max="9" width="19" customWidth="1"/>
     <col min="10" max="10" width="14.5703125" customWidth="1"/>
     <col min="11" max="11" width="15.5703125" customWidth="1"/>
@@ -597,12 +819,12 @@
     <col min="14" max="14" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -611,370 +833,805 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
       <c r="H1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+      <c r="I1" t="s">
+        <v>132</v>
+      </c>
+      <c r="J1" t="s">
+        <v>133</v>
+      </c>
+      <c r="K1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>91</v>
+      </c>
+      <c r="F5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>92</v>
+      </c>
+      <c r="F6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>94</v>
+      </c>
+      <c r="F8" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>95</v>
+      </c>
+      <c r="F9" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10" t="s">
+        <v>96</v>
+      </c>
+      <c r="F10" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11" t="s">
+        <v>97</v>
+      </c>
+      <c r="F11" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12" t="s">
+        <v>98</v>
+      </c>
+      <c r="F12" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>99</v>
+      </c>
+      <c r="F13" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14" t="s">
+        <v>100</v>
+      </c>
+      <c r="F14" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C15" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15" t="s">
+        <v>101</v>
+      </c>
+      <c r="F15" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="C16" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16" t="s">
+        <v>102</v>
+      </c>
+      <c r="F16" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="C17" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17" t="s">
+        <v>103</v>
+      </c>
+      <c r="F17" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="C18" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18" t="s">
+        <v>104</v>
+      </c>
+      <c r="F18" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="C19" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19" t="s">
+        <v>105</v>
+      </c>
+      <c r="F19" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="C20" t="s">
+        <v>64</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20" t="s">
+        <v>106</v>
+      </c>
+      <c r="F20" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="C21" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21" t="s">
+        <v>107</v>
+      </c>
+      <c r="F21" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="C22" t="s">
+        <v>66</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22" t="s">
+        <v>108</v>
+      </c>
+      <c r="F22" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="C23" t="s">
+        <v>67</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23" t="s">
+        <v>109</v>
+      </c>
+      <c r="F23" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>68</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24" t="s">
+        <v>110</v>
+      </c>
+      <c r="F24" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>69</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25" t="s">
+        <v>111</v>
+      </c>
+      <c r="F25" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="C26" t="s">
+        <v>70</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26" t="s">
+        <v>112</v>
+      </c>
+      <c r="F26" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="C27" t="s">
+        <v>71</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27" t="s">
+        <v>113</v>
+      </c>
+      <c r="F27" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="C28" t="s">
+        <v>72</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28" t="s">
+        <v>114</v>
+      </c>
+      <c r="F28" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="C29" t="s">
+        <v>73</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29" t="s">
+        <v>115</v>
+      </c>
+      <c r="F29" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="C30" t="s">
+        <v>74</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30" t="s">
+        <v>116</v>
+      </c>
+      <c r="F30" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="C31" t="s">
+        <v>75</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31" t="s">
+        <v>117</v>
+      </c>
+      <c r="F31" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="C32" t="s">
+        <v>76</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32" t="s">
+        <v>118</v>
+      </c>
+      <c r="F32" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="C33" t="s">
+        <v>77</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33" t="s">
+        <v>119</v>
+      </c>
+      <c r="F33" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+      <c r="C34" t="s">
+        <v>78</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34" t="s">
+        <v>120</v>
+      </c>
+      <c r="F34" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="C35" t="s">
+        <v>79</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35" t="s">
+        <v>121</v>
+      </c>
+      <c r="F35" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="C36" t="s">
+        <v>80</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36" t="s">
+        <v>122</v>
+      </c>
+      <c r="F36" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="C37" t="s">
+        <v>81</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37" t="s">
+        <v>123</v>
+      </c>
+      <c r="F37" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+      <c r="C38" t="s">
+        <v>82</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38" t="s">
+        <v>124</v>
+      </c>
+      <c r="F38" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="C39" t="s">
+        <v>83</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39" t="s">
+        <v>88</v>
+      </c>
+      <c r="F39" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>46</v>
+        <v>44</v>
+      </c>
+      <c r="C40" t="s">
+        <v>84</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40" t="s">
+        <v>87</v>
+      </c>
+      <c r="F40" t="s">
+        <v>131</v>
       </c>
     </row>
   </sheetData>

--- a/ml_server/data/EnPhiSim_dataset.xlsx
+++ b/ml_server/data/EnPhiSim_dataset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DIVYATEJ\OneDrive\EnPhiSim\ml_server\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD593628-3F6E-4FEA-BE8D-8EDAD34DC22D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC8DFA45-B136-4082-888A-45B256E5F5F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{652C4A2D-35AE-4F6D-9BD4-8B9990ADAB74}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10245" windowHeight="10920" xr2:uid="{652C4A2D-35AE-4F6D-9BD4-8B9990ADAB74}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="140">
   <si>
     <t>id</t>
   </si>
@@ -34,9 +34,6 @@
     <t>level_type</t>
   </si>
   <si>
-    <t>random_level</t>
-  </si>
-  <si>
     <t>Level_no</t>
   </si>
   <si>
@@ -280,123 +277,6 @@
     <t>js_path</t>
   </si>
   <si>
-    <t>./levels/l1.js</t>
-  </si>
-  <si>
-    <t>./levels/f.js</t>
-  </si>
-  <si>
-    <t>./levels/bl6.js</t>
-  </si>
-  <si>
-    <t>./levels/l2.js</t>
-  </si>
-  <si>
-    <t>./levels/l3.js</t>
-  </si>
-  <si>
-    <t>./levels/l4.js</t>
-  </si>
-  <si>
-    <t>./levels/l5.js</t>
-  </si>
-  <si>
-    <t>./levels/l6.js</t>
-  </si>
-  <si>
-    <t>./levels/bl1.js</t>
-  </si>
-  <si>
-    <t>./levels/l7.js</t>
-  </si>
-  <si>
-    <t>./levels/l8.js</t>
-  </si>
-  <si>
-    <t>./levels/l9.js</t>
-  </si>
-  <si>
-    <t>./levels/l10.js</t>
-  </si>
-  <si>
-    <t>./levels/l11.js</t>
-  </si>
-  <si>
-    <t>./levels/l12.js</t>
-  </si>
-  <si>
-    <t>./levels/bl2.js</t>
-  </si>
-  <si>
-    <t>./levels/l13.js</t>
-  </si>
-  <si>
-    <t>./levels/l14.js</t>
-  </si>
-  <si>
-    <t>./levels/l15.js</t>
-  </si>
-  <si>
-    <t>./levels/l16.js</t>
-  </si>
-  <si>
-    <t>./levels/l17.js</t>
-  </si>
-  <si>
-    <t>./levels/l18.js</t>
-  </si>
-  <si>
-    <t>./levels/bl3.js</t>
-  </si>
-  <si>
-    <t>./levels/l19.js</t>
-  </si>
-  <si>
-    <t>./levels/l20.js</t>
-  </si>
-  <si>
-    <t>./levels/l21.js</t>
-  </si>
-  <si>
-    <t>./levels/l22.js</t>
-  </si>
-  <si>
-    <t>./levels/l23.js</t>
-  </si>
-  <si>
-    <t>./levels/bl4.js</t>
-  </si>
-  <si>
-    <t>./levels/l24.js</t>
-  </si>
-  <si>
-    <t>./levels/l25.js</t>
-  </si>
-  <si>
-    <t>./levels/l26.js</t>
-  </si>
-  <si>
-    <t>./levels/l27.js</t>
-  </si>
-  <si>
-    <t>./levels/l28.js</t>
-  </si>
-  <si>
-    <t>./levels/bl5.js</t>
-  </si>
-  <si>
-    <t>./levels/l29.js</t>
-  </si>
-  <si>
-    <t>./levels/l30.js</t>
-  </si>
-  <si>
-    <t>./levels/l31.js</t>
-  </si>
-  <si>
-    <t>./levels/l32.js</t>
-  </si>
-  <si>
     <t>easy</t>
   </si>
   <si>
@@ -418,13 +298,148 @@
     <t>final</t>
   </si>
   <si>
-    <t>action_1</t>
-  </si>
-  <si>
-    <t>action_2</t>
-  </si>
-  <si>
-    <t>action_3</t>
+    <t>correct_option</t>
+  </si>
+  <si>
+    <t>wrong_option</t>
+  </si>
+  <si>
+    <t>neutral_option</t>
+  </si>
+  <si>
+    <t>./levels/easy/l1.js</t>
+  </si>
+  <si>
+    <t>./levels/easy/l2.js</t>
+  </si>
+  <si>
+    <t>./levels/easy/l3.js</t>
+  </si>
+  <si>
+    <t>./levels/easy/l4.js</t>
+  </si>
+  <si>
+    <t>./levels/easy/l5.js</t>
+  </si>
+  <si>
+    <t>./levels/easy/l6.js</t>
+  </si>
+  <si>
+    <t>./levels/easy/bl1.js</t>
+  </si>
+  <si>
+    <t>./levels/adv_easy/l7.js</t>
+  </si>
+  <si>
+    <t>./levels/adv_easy/l8.js</t>
+  </si>
+  <si>
+    <t>./levels/adv_easy/l9.js</t>
+  </si>
+  <si>
+    <t>./levels/adv_easy/l10.js</t>
+  </si>
+  <si>
+    <t>./levels/adv_easy/l11.js</t>
+  </si>
+  <si>
+    <t>./levels/adv_easy/l12.js</t>
+  </si>
+  <si>
+    <t>./levels/adv_easy/bl2.js</t>
+  </si>
+  <si>
+    <t>./levels/normal/l13.js</t>
+  </si>
+  <si>
+    <t>./levels/normal/l14.js</t>
+  </si>
+  <si>
+    <t>./levels/normal/l15.js</t>
+  </si>
+  <si>
+    <t>./levels/normal/l16.js</t>
+  </si>
+  <si>
+    <t>./levels/normal/l17.js</t>
+  </si>
+  <si>
+    <t>./levels/normal/l18.js</t>
+  </si>
+  <si>
+    <t>./levels/normal/bl3.js</t>
+  </si>
+  <si>
+    <t>./levels/pre_hard/l19.js</t>
+  </si>
+  <si>
+    <t>./levels/pre_hard/l20.js</t>
+  </si>
+  <si>
+    <t>./levels/pre_hard/l21.js</t>
+  </si>
+  <si>
+    <t>./levels/pre_hard/l22.js</t>
+  </si>
+  <si>
+    <t>./levels/pre_hard/l23.js</t>
+  </si>
+  <si>
+    <t>./levels/pre_hard/bl4.js</t>
+  </si>
+  <si>
+    <t>./levels/hard/l24.js</t>
+  </si>
+  <si>
+    <t>./levels/hard/l25.js</t>
+  </si>
+  <si>
+    <t>./levels/hard/l26.js</t>
+  </si>
+  <si>
+    <t>./levels/hard/l27.js</t>
+  </si>
+  <si>
+    <t>./levels/hard/l28.js</t>
+  </si>
+  <si>
+    <t>./levels/hard/bl5.js</t>
+  </si>
+  <si>
+    <t>./levels/adv_hard/l29.js</t>
+  </si>
+  <si>
+    <t>./levels/adv_hard/l30.js</t>
+  </si>
+  <si>
+    <t>./levels/adv_hard/l31.js</t>
+  </si>
+  <si>
+    <t>./levels/adv_hard/l32.js</t>
+  </si>
+  <si>
+    <t>./levels/adv_hard/bl6.js</t>
+  </si>
+  <si>
+    <t>./levels/final/f.js</t>
+  </si>
+  <si>
+    <t>Security/IT-Support team mail to the reciever</t>
+  </si>
+  <si>
+    <t>from_and_to</t>
+  </si>
+  <si>
+    <t>vendor to the supplier</t>
+  </si>
+  <si>
+    <t>marketing team to reciever</t>
+  </si>
+  <si>
+    <t>scammer to the reciever</t>
+  </si>
+  <si>
+    <t>fake HR to reciever</t>
   </si>
 </sst>
 </file>
@@ -798,7 +813,7 @@
   <dimension ref="A1:K40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -824,7 +839,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -833,25 +848,25 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>4</v>
+        <v>135</v>
       </c>
       <c r="H1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I1" t="s">
-        <v>132</v>
+        <v>92</v>
       </c>
       <c r="J1" t="s">
-        <v>133</v>
+        <v>94</v>
       </c>
       <c r="K1" t="s">
-        <v>134</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -859,19 +874,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="F2" t="s">
-        <v>125</v>
+        <v>85</v>
+      </c>
+      <c r="G2" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -879,19 +897,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="F3" t="s">
-        <v>125</v>
+        <v>85</v>
+      </c>
+      <c r="G3" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -899,19 +920,22 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="F4" t="s">
-        <v>125</v>
+        <v>85</v>
+      </c>
+      <c r="G4" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -919,19 +943,22 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="F5" t="s">
-        <v>125</v>
+        <v>85</v>
+      </c>
+      <c r="G5" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -939,19 +966,22 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="F6" t="s">
-        <v>125</v>
+        <v>85</v>
+      </c>
+      <c r="G6" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -959,19 +989,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="F7" t="s">
-        <v>125</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -979,19 +1009,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="F8" t="s">
-        <v>125</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -999,19 +1029,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="F9" t="s">
-        <v>126</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -1019,19 +1049,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="F10" t="s">
-        <v>126</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -1039,19 +1069,19 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="F11" t="s">
-        <v>126</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -1059,19 +1089,19 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="F12" t="s">
-        <v>126</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -1079,19 +1109,19 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="F13" t="s">
-        <v>126</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -1099,19 +1129,19 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="F14" t="s">
-        <v>126</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -1119,19 +1149,19 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="F15" t="s">
-        <v>126</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -1139,19 +1169,19 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="F16" t="s">
-        <v>127</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -1159,19 +1189,19 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="F17" t="s">
-        <v>127</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1179,19 +1209,19 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="F18" t="s">
-        <v>127</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1199,19 +1229,19 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="F19" t="s">
-        <v>127</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1219,19 +1249,19 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="F20" t="s">
-        <v>127</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1239,19 +1269,19 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="F21" t="s">
-        <v>127</v>
+        <v>87</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1259,19 +1289,19 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="F22" t="s">
-        <v>127</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1279,19 +1309,19 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="F23" t="s">
-        <v>128</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1299,19 +1329,19 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F24" t="s">
-        <v>128</v>
+        <v>88</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1319,19 +1349,19 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="F25" t="s">
-        <v>128</v>
+        <v>88</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1339,19 +1369,19 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D26">
         <v>0</v>
       </c>
       <c r="E26" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="F26" t="s">
-        <v>128</v>
+        <v>88</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -1359,19 +1389,19 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C27" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D27">
         <v>0</v>
       </c>
       <c r="E27" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="F27" t="s">
-        <v>128</v>
+        <v>88</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -1379,19 +1409,19 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C28" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D28">
         <v>0</v>
       </c>
       <c r="E28" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="F28" t="s">
-        <v>128</v>
+        <v>88</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -1399,19 +1429,19 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C29" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D29">
         <v>0</v>
       </c>
       <c r="E29" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="F29" t="s">
-        <v>129</v>
+        <v>89</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -1419,19 +1449,19 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C30" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D30">
         <v>0</v>
       </c>
       <c r="E30" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="F30" t="s">
-        <v>129</v>
+        <v>89</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -1439,19 +1469,19 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C31" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D31">
         <v>0</v>
       </c>
       <c r="E31" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="F31" t="s">
-        <v>129</v>
+        <v>89</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -1459,19 +1489,19 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C32" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D32">
         <v>0</v>
       </c>
       <c r="E32" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="F32" t="s">
-        <v>129</v>
+        <v>89</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -1479,19 +1509,19 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C33" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D33">
         <v>0</v>
       </c>
       <c r="E33" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="F33" t="s">
-        <v>129</v>
+        <v>89</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -1499,19 +1529,19 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C34" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D34">
         <v>0</v>
       </c>
       <c r="E34" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="F34" t="s">
-        <v>129</v>
+        <v>89</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -1519,19 +1549,19 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C35" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D35">
         <v>0</v>
       </c>
       <c r="E35" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="F35" t="s">
-        <v>130</v>
+        <v>90</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -1539,19 +1569,19 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C36" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D36">
         <v>0</v>
       </c>
       <c r="E36" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="F36" t="s">
-        <v>130</v>
+        <v>90</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -1559,19 +1589,19 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C37" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D37">
         <v>0</v>
       </c>
       <c r="E37" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="F37" t="s">
-        <v>130</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -1579,19 +1609,19 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C38" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D38">
         <v>0</v>
       </c>
       <c r="E38" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="F38" t="s">
-        <v>130</v>
+        <v>90</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -1599,19 +1629,19 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C39" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D39">
         <v>0</v>
       </c>
       <c r="E39" t="s">
-        <v>88</v>
+        <v>132</v>
       </c>
       <c r="F39" t="s">
-        <v>130</v>
+        <v>90</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -1619,19 +1649,19 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C40" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D40">
         <v>0</v>
       </c>
       <c r="E40" t="s">
-        <v>87</v>
+        <v>133</v>
       </c>
       <c r="F40" t="s">
-        <v>131</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/ml_server/data/EnPhiSim_dataset.xlsx
+++ b/ml_server/data/EnPhiSim_dataset.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DIVYATEJ\OneDrive\EnPhiSim\ml_server\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\D3604526\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC8DFA45-B136-4082-888A-45B256E5F5F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13385457-8724-4353-9677-A582DCD32937}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10245" windowHeight="10920" xr2:uid="{652C4A2D-35AE-4F6D-9BD4-8B9990ADAB74}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{652C4A2D-35AE-4F6D-9BD4-8B9990ADAB74}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="206">
   <si>
     <t>id</t>
   </si>
@@ -28,9 +28,6 @@
     <t>page_title</t>
   </si>
   <si>
-    <t>screenshot_path</t>
-  </si>
-  <si>
     <t>level_type</t>
   </si>
   <si>
@@ -440,14 +437,326 @@
   </si>
   <si>
     <t>fake HR to reciever</t>
+  </si>
+  <si>
+    <t>Fake sender to reciever</t>
+  </si>
+  <si>
+    <t>Fake Phishi to reciever</t>
+  </si>
+  <si>
+    <t>Fake Spear- to reciever</t>
+  </si>
+  <si>
+    <t>Fake vishin to reciever</t>
+  </si>
+  <si>
+    <t>Fake captur to reciever</t>
+  </si>
+  <si>
+    <t>Fake campai to reciever</t>
+  </si>
+  <si>
+    <t>Fake reconn to reciever</t>
+  </si>
+  <si>
+    <t>Facts of eagle and Technology</t>
+  </si>
+  <si>
+    <t>Facts of monkey and Technology</t>
+  </si>
+  <si>
+    <t>Facts of turtle and Technology</t>
+  </si>
+  <si>
+    <t>Facts of whaling and Technology</t>
+  </si>
+  <si>
+    <t>Facts of shark and Technology</t>
+  </si>
+  <si>
+    <t>Facts of elephant and Technology</t>
+  </si>
+  <si>
+    <t>Facts of honeybee and Technology</t>
+  </si>
+  <si>
+    <t>Fake domain to the user</t>
+  </si>
+  <si>
+    <t>Fake redirection to the user</t>
+  </si>
+  <si>
+    <t>malicious feedback survey request to user</t>
+  </si>
+  <si>
+    <t>Fake redirection msg to the user</t>
+  </si>
+  <si>
+    <t>pretending to have a notification to the user</t>
+  </si>
+  <si>
+    <t>duplication of the service</t>
+  </si>
+  <si>
+    <t>pretending to be real invoice to the user</t>
+  </si>
+  <si>
+    <t>fake landing page</t>
+  </si>
+  <si>
+    <t>fake phish to the user with vishing</t>
+  </si>
+  <si>
+    <t>fake qrcode redirection to the user</t>
+  </si>
+  <si>
+    <t>html page with malicious html header</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fake domain similar as the real domain </t>
+  </si>
+  <si>
+    <t>Hint</t>
+  </si>
+  <si>
+    <t>credential replay with extrafiltration</t>
+  </si>
+  <si>
+    <t>Phish email</t>
+  </si>
+  <si>
+    <t>Phish email, wrong invoce and payment reminder</t>
+  </si>
+  <si>
+    <t>Subject: Quick heads-up! Your account password is set to expire today. Please click this link right away to confirm your details and avoid losing access. - Your Friendly IT Team</t>
+  </si>
+  <si>
+    <t>Unsubscribe</t>
+  </si>
+  <si>
+    <t>ignore</t>
+  </si>
+  <si>
+    <t>verify</t>
+  </si>
+  <si>
+    <t>click on the Attachment</t>
+  </si>
+  <si>
+    <t>Subject: OVERDUE! We haven't received your payment of £1,200. Check the attached invoice and pay immediately to keep your service running! - Accounts Dept.</t>
+  </si>
+  <si>
+    <t>Check the full email address, not just the name.</t>
+  </si>
+  <si>
+    <t>Mismatched Display Name and Address.</t>
+  </si>
+  <si>
+    <t>Sender is a compromised internal account.</t>
+  </si>
+  <si>
+    <t>Characters look identical but are different.</t>
+  </si>
+  <si>
+    <t>Something is too good to be true.</t>
+  </si>
+  <si>
+    <t>Hover over the link before clicking.</t>
+  </si>
+  <si>
+    <t>Links are deliberately obscured.</t>
+  </si>
+  <si>
+    <t>Unexpected or suspicious file type</t>
+  </si>
+  <si>
+    <t>Unsolicited QR codes.</t>
+  </si>
+  <si>
+    <t>References specific, internal projects or personal details.</t>
+  </si>
+  <si>
+    <t>Urgent financial request with a sudden change in procedure.</t>
+  </si>
+  <si>
+    <t>The invoice is for an unknown service or has new bank details.</t>
+  </si>
+  <si>
+    <t>Hyper-realistic, perfect language and strong context.</t>
+  </si>
+  <si>
+    <t>Subscription confirmation is for a newsletter you don't recall joining.</t>
+  </si>
+  <si>
+    <t>Survey asks for sensitive personal or security questions.</t>
+  </si>
+  <si>
+    <t>Unsolicited text message with a vague, urgent link.</t>
+  </si>
+  <si>
+    <t>Notification about a tax refund, speeding ticket, or health fine you weren't expecting.</t>
+  </si>
+  <si>
+    <t>Unexpected notification for a shared document from an external email.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Unusual file extensions like </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>.html</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>.hta</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, or a seemingly harmless </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>.docm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> with macros.</t>
+    </r>
+  </si>
+  <si>
+    <t>An email sets the stage, and then a call follows up.</t>
+  </si>
+  <si>
+    <t>Unexpected password reset, login notification, or small, unusual internal emails.</t>
+  </si>
+  <si>
+    <t>Unexpected changes to internal systems or processes that don't match formal approvals.</t>
+  </si>
+  <si>
+    <t>A familiar voice makes an unusual or high-pressure request over the phone.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The login page has a valid URL but asks for credentials </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>too often</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>An email comes from a legitimate, trusted third-party vendor about an unexpected software update.</t>
+  </si>
+  <si>
+    <t>Receiving "successful login" notifications for a past password on an old account.</t>
+  </si>
+  <si>
+    <t>The emails show an intimate, evolving knowledge of your current work.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The link domain does not match the real social media platform's URL when you </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>hover over it</t>
+    </r>
+  </si>
+  <si>
+    <t>The message creates extreme urgency and threatens immediate service loss to force you to click without thinking.</t>
+  </si>
+  <si>
+    <t>A high-level executive (C-suite) is pressured into an unusual, high-value financial or data request that demands secrecy.</t>
+  </si>
+  <si>
+    <t>The email comes from a real colleague's address but contains uncharacteristic language or an unexpected request for a file or link.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Unicode MS"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
@@ -474,8 +783,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
@@ -812,16 +1123,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0AFD0C1-7CE0-4768-8E89-DB33AF70F10E}">
   <dimension ref="A1:K40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.140625" customWidth="1"/>
     <col min="2" max="2" width="18.42578125" customWidth="1"/>
-    <col min="3" max="3" width="42.28515625" customWidth="1"/>
-    <col min="4" max="4" width="35.7109375" customWidth="1"/>
+    <col min="3" max="3" width="48" customWidth="1"/>
+    <col min="4" max="4" width="59.5703125" customWidth="1"/>
     <col min="5" max="5" width="27.5703125" customWidth="1"/>
     <col min="6" max="6" width="21.42578125" customWidth="1"/>
     <col min="7" max="7" width="40.28515625" customWidth="1"/>
@@ -834,837 +1145,946 @@
     <col min="14" max="14" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
       <c r="G1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K1" t="s">
         <v>92</v>
       </c>
-      <c r="J1" t="s">
-        <v>94</v>
-      </c>
-      <c r="K1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
+        <v>43</v>
+      </c>
+      <c r="D2" t="s">
+        <v>167</v>
       </c>
       <c r="E2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+      <c r="H2" t="s">
+        <v>169</v>
+      </c>
+      <c r="I2" t="s">
+        <v>170</v>
+      </c>
+      <c r="J2" t="s">
+        <v>171</v>
+      </c>
+      <c r="K2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
+        <v>44</v>
+      </c>
+      <c r="D3" t="s">
+        <v>168</v>
       </c>
       <c r="E3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="I3" t="s">
+        <v>170</v>
+      </c>
+      <c r="J3" t="s">
+        <v>171</v>
+      </c>
+      <c r="K3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
+        <v>45</v>
+      </c>
+      <c r="D4" t="s">
+        <v>188</v>
       </c>
       <c r="E4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G4" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
+        <v>46</v>
+      </c>
+      <c r="D5" t="s">
+        <v>179</v>
       </c>
       <c r="E5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G5" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
+        <v>47</v>
+      </c>
+      <c r="D6" t="s">
+        <v>182</v>
       </c>
       <c r="E6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G6" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
+        <v>48</v>
+      </c>
+      <c r="D7" t="s">
+        <v>176</v>
       </c>
       <c r="E7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F7" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+      <c r="G7" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C8" t="s">
-        <v>50</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="E8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+      <c r="G8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>51</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
+        <v>50</v>
+      </c>
+      <c r="D9" t="s">
+        <v>175</v>
       </c>
       <c r="E9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F9" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+      <c r="G9" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
+        <v>51</v>
+      </c>
+      <c r="D10" t="s">
+        <v>181</v>
       </c>
       <c r="E10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F10" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+      <c r="G10" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>53</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
+        <v>52</v>
+      </c>
+      <c r="D11" t="s">
+        <v>189</v>
       </c>
       <c r="E11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F11" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+      <c r="G11" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>54</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
+        <v>53</v>
+      </c>
+      <c r="D12" t="s">
+        <v>190</v>
       </c>
       <c r="E12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F12" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+      <c r="G12" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>55</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
+        <v>54</v>
+      </c>
+      <c r="D13" t="s">
+        <v>202</v>
       </c>
       <c r="E13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F13" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+      <c r="G13" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>56</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
+        <v>55</v>
+      </c>
+      <c r="D14" t="s">
+        <v>191</v>
       </c>
       <c r="E14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F14" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+      <c r="G14" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C15" t="s">
-        <v>57</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="E15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F15" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+      <c r="G15" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>59</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
+        <v>58</v>
+      </c>
+      <c r="D16" t="s">
+        <v>184</v>
       </c>
       <c r="E16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F16" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+      <c r="G16" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C17" t="s">
-        <v>60</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
+        <v>59</v>
+      </c>
+      <c r="D17" t="s">
+        <v>185</v>
       </c>
       <c r="E17" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F17" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+      <c r="G17" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C18" t="s">
-        <v>61</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
+        <v>60</v>
+      </c>
+      <c r="D18" t="s">
+        <v>192</v>
       </c>
       <c r="E18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F18" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+      <c r="G18" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C19" t="s">
-        <v>62</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
+        <v>61</v>
+      </c>
+      <c r="D19" t="s">
+        <v>186</v>
       </c>
       <c r="E19" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F19" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+      <c r="G19" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C20" t="s">
-        <v>63</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
+        <v>62</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>203</v>
       </c>
       <c r="E20" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F20" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+      <c r="G20" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C21" t="s">
-        <v>64</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
+        <v>63</v>
+      </c>
+      <c r="D21" t="s">
+        <v>180</v>
       </c>
       <c r="E21" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F21" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+      <c r="G21" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C22" t="s">
-        <v>65</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="E22" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F22" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+      <c r="G22" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C23" t="s">
-        <v>66</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
+        <v>65</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>204</v>
       </c>
       <c r="E23" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F23" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+      <c r="G23" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C24" t="s">
-        <v>67</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
+        <v>66</v>
+      </c>
+      <c r="D24" t="s">
+        <v>194</v>
       </c>
       <c r="E24" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F24" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+      <c r="G24" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>68</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
+        <v>67</v>
+      </c>
+      <c r="D25" t="s">
+        <v>183</v>
       </c>
       <c r="E25" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F25" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+      <c r="G25" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>69</v>
-      </c>
-      <c r="D26">
-        <v>0</v>
+        <v>68</v>
+      </c>
+      <c r="D26" t="s">
+        <v>195</v>
       </c>
       <c r="E26" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F26" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+      <c r="G26" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>70</v>
-      </c>
-      <c r="D27">
-        <v>0</v>
+        <v>69</v>
+      </c>
+      <c r="D27" t="s">
+        <v>193</v>
       </c>
       <c r="E27" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F27" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+      <c r="G27" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C28" t="s">
-        <v>71</v>
-      </c>
-      <c r="D28">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="E28" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F28" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+      <c r="G28" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C29" t="s">
-        <v>72</v>
-      </c>
-      <c r="D29">
-        <v>0</v>
+        <v>71</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>196</v>
       </c>
       <c r="E29" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F29" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+      <c r="G29" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C30" t="s">
-        <v>73</v>
-      </c>
-      <c r="D30">
-        <v>0</v>
+        <v>72</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>205</v>
       </c>
       <c r="E30" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F30" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+      <c r="G30" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C31" t="s">
-        <v>74</v>
-      </c>
-      <c r="D31">
-        <v>0</v>
+        <v>73</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>197</v>
       </c>
       <c r="E31" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F31" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+      <c r="G31" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C32" t="s">
-        <v>75</v>
-      </c>
-      <c r="D32">
-        <v>0</v>
+        <v>74</v>
+      </c>
+      <c r="D32" t="s">
+        <v>198</v>
       </c>
       <c r="E32" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F32" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+      <c r="G32" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C33" t="s">
-        <v>76</v>
-      </c>
-      <c r="D33">
-        <v>0</v>
+        <v>75</v>
+      </c>
+      <c r="D33" t="s">
+        <v>199</v>
       </c>
       <c r="E33" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F33" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+      <c r="G33" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C34" t="s">
-        <v>77</v>
-      </c>
-      <c r="D34">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="E34" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F34" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+      <c r="G34" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C35" t="s">
-        <v>78</v>
-      </c>
-      <c r="D35">
-        <v>0</v>
+        <v>77</v>
+      </c>
+      <c r="D35" t="s">
+        <v>187</v>
       </c>
       <c r="E35" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F35" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+      <c r="G35" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C36" t="s">
-        <v>79</v>
-      </c>
-      <c r="D36">
-        <v>0</v>
+        <v>78</v>
+      </c>
+      <c r="D36" t="s">
+        <v>178</v>
       </c>
       <c r="E36" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F36" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+      <c r="G36" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C37" t="s">
-        <v>80</v>
-      </c>
-      <c r="D37">
-        <v>0</v>
+        <v>79</v>
+      </c>
+      <c r="D37" t="s">
+        <v>200</v>
       </c>
       <c r="E37" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F37" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+      <c r="G37" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C38" t="s">
-        <v>81</v>
-      </c>
-      <c r="D38">
-        <v>0</v>
+        <v>80</v>
+      </c>
+      <c r="D38" t="s">
+        <v>201</v>
       </c>
       <c r="E38" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F38" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+      <c r="G38" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C39" t="s">
-        <v>82</v>
-      </c>
-      <c r="D39">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="E39" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F39" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+      <c r="G39" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C40" t="s">
-        <v>83</v>
-      </c>
-      <c r="D40">
-        <v>0</v>
+        <v>82</v>
+      </c>
+      <c r="D40" t="s">
+        <v>177</v>
       </c>
       <c r="E40" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F40" t="s">
-        <v>91</v>
+        <v>90</v>
+      </c>
+      <c r="G40" t="s">
+        <v>154</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="0.75" bottom="0.75" header="0.30000000000000004" footer="0.30000000000000004"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/ml_server/data/EnPhiSim_dataset.xlsx
+++ b/ml_server/data/EnPhiSim_dataset.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\D3604526\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DIVYATEJ\OneDrive\EnPhiSim_clean\ml_server\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13385457-8724-4353-9677-A582DCD32937}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D57DEAB4-2794-4FE9-BD34-575627185745}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{652C4A2D-35AE-4F6D-9BD4-8B9990ADAB74}"/>
+    <workbookView xWindow="10245" yWindow="0" windowWidth="10245" windowHeight="10920" xr2:uid="{652C4A2D-35AE-4F6D-9BD4-8B9990ADAB74}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="220">
   <si>
     <t>id</t>
   </si>
@@ -724,6 +724,48 @@
   </si>
   <si>
     <t>The email comes from a real colleague's address but contains uncharacteristic language or an unexpected request for a file or link.</t>
+  </si>
+  <si>
+    <t>template_type</t>
+  </si>
+  <si>
+    <t>mail</t>
+  </si>
+  <si>
+    <t>image</t>
+  </si>
+  <si>
+    <t>browser</t>
+  </si>
+  <si>
+    <t>message</t>
+  </si>
+  <si>
+    <t>notification</t>
+  </si>
+  <si>
+    <t>poster</t>
+  </si>
+  <si>
+    <t>mail +  browser</t>
+  </si>
+  <si>
+    <t>mail + message</t>
+  </si>
+  <si>
+    <t>browser + mail</t>
+  </si>
+  <si>
+    <t>mail + browser</t>
+  </si>
+  <si>
+    <t>browser + message</t>
+  </si>
+  <si>
+    <t>browser + mail + message</t>
+  </si>
+  <si>
+    <t>mail + Browser+message+notification</t>
   </si>
 </sst>
 </file>
@@ -783,10 +825,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
@@ -1121,10 +1162,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0AFD0C1-7CE0-4768-8E89-DB33AF70F10E}">
-  <dimension ref="A1:K40"/>
+  <dimension ref="A1:L40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1145,7 +1186,7 @@
     <col min="14" max="14" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1179,8 +1220,11 @@
       <c r="K1" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1214,8 +1258,11 @@
       <c r="K2" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="L2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1249,8 +1296,11 @@
       <c r="K3" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="L3" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1272,8 +1322,11 @@
       <c r="G4" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="L4" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1295,8 +1348,11 @@
       <c r="G5" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="L5" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1318,8 +1374,11 @@
       <c r="G6" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="L6" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1341,8 +1400,11 @@
       <c r="G7" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="L7" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1361,8 +1423,11 @@
       <c r="G8" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="L8" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1384,8 +1449,11 @@
       <c r="G9" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="L9" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1407,8 +1475,11 @@
       <c r="G10" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="L10" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1430,8 +1501,11 @@
       <c r="G11" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="12" spans="1:11">
+      <c r="L11" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1453,8 +1527,11 @@
       <c r="G12" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="13" spans="1:11">
+      <c r="L12" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1476,8 +1553,11 @@
       <c r="G13" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="14" spans="1:11">
+      <c r="L13" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1499,8 +1579,11 @@
       <c r="G14" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="15" spans="1:11">
+      <c r="L14" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1519,8 +1602,11 @@
       <c r="G15" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="16" spans="1:11">
+      <c r="L15" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1542,8 +1628,11 @@
       <c r="G16" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="L16" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1565,8 +1654,11 @@
       <c r="G17" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="L17" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1588,8 +1680,11 @@
       <c r="G18" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="L18" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1611,8 +1706,11 @@
       <c r="G19" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="L19" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1622,7 +1720,7 @@
       <c r="C20" t="s">
         <v>62</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" t="s">
         <v>203</v>
       </c>
       <c r="E20" t="s">
@@ -1634,8 +1732,11 @@
       <c r="G20" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="L20" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1657,8 +1758,11 @@
       <c r="G21" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="L21" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1677,8 +1781,11 @@
       <c r="G22" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="L22" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1688,7 +1795,7 @@
       <c r="C23" t="s">
         <v>65</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D23" t="s">
         <v>204</v>
       </c>
       <c r="E23" t="s">
@@ -1700,8 +1807,11 @@
       <c r="G23" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="L23" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1723,8 +1833,11 @@
       <c r="G24" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="L24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1746,8 +1859,11 @@
       <c r="G25" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="L25" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1769,8 +1885,11 @@
       <c r="G26" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="27" spans="1:7">
+      <c r="L26" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1792,8 +1911,11 @@
       <c r="G27" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="L27" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1812,8 +1934,11 @@
       <c r="G28" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="29" spans="1:7">
+      <c r="L28" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1823,7 +1948,7 @@
       <c r="C29" t="s">
         <v>71</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D29" t="s">
         <v>196</v>
       </c>
       <c r="E29" t="s">
@@ -1835,8 +1960,11 @@
       <c r="G29" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="30" spans="1:7">
+      <c r="L29" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1846,7 +1974,7 @@
       <c r="C30" t="s">
         <v>72</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D30" t="s">
         <v>205</v>
       </c>
       <c r="E30" t="s">
@@ -1858,8 +1986,11 @@
       <c r="G30" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="31" spans="1:7">
+      <c r="L30" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1869,7 +2000,7 @@
       <c r="C31" t="s">
         <v>73</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D31" t="s">
         <v>197</v>
       </c>
       <c r="E31" t="s">
@@ -1881,8 +2012,11 @@
       <c r="G31" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="32" spans="1:7">
+      <c r="L31" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1904,8 +2038,11 @@
       <c r="G32" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="33" spans="1:7">
+      <c r="L32" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1927,8 +2064,11 @@
       <c r="G33" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="34" spans="1:7">
+      <c r="L33" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1947,8 +2087,11 @@
       <c r="G34" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="35" spans="1:7">
+      <c r="L34" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1970,8 +2113,11 @@
       <c r="G35" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="L35" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1993,8 +2139,11 @@
       <c r="G36" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="37" spans="1:7">
+      <c r="L36" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2016,8 +2165,11 @@
       <c r="G37" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="L37" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2039,8 +2191,11 @@
       <c r="G38" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="39" spans="1:7">
+      <c r="L38" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2059,8 +2214,11 @@
       <c r="G39" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="40" spans="1:7">
+      <c r="L39" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2081,6 +2239,9 @@
       </c>
       <c r="G40" t="s">
         <v>154</v>
+      </c>
+      <c r="L40" t="s">
+        <v>219</v>
       </c>
     </row>
   </sheetData>
